--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2078F98A-F811-4712-BE77-1D30C1FC6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32119A85-AE48-4A52-8EFC-E6BF741DEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="并发计算" sheetId="3" r:id="rId3"/>
     <sheet name="更新LOD" sheetId="6" r:id="rId4"/>
     <sheet name="URO" sheetId="5" r:id="rId5"/>
+    <sheet name="隐患" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,17 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/380683625</t>
+  </si>
+  <si>
+    <t>对于USkeletalMeshComponent来说，每次TICK的时候如果TICKFunction的设置GROUP和实际GROUP不一样（前置条件的GROUP靠后），则不会异步进行计算，直接就在主线程计算的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步计算的前提是实际的GROUP和设置的需要一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bDoParallelEvaluation = bHasValidInstanceForParallelWork &amp;&amp; bDoPAE &amp;&amp; (bShouldDoEvaluation || bShouldDoParallelInterpolation) &amp;&amp; TickFunction &amp;&amp; (TickFunction-&gt;GetActualTickGroup() == TickFunction-&gt;TickGroup) &amp;&amp; TickFunction-&gt;IsCompletionHandleValid();</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C796BC-2900-4975-A596-E02DDE4B8357}">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -1159,4 +1171,41 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243D5D1-A129-4ECA-864E-919ED04AA4E3}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32119A85-AE48-4A52-8EFC-E6BF741DEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BD5BB-4773-47B3-8E81-1DF57654B245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="简介" sheetId="1" r:id="rId1"/>
-    <sheet name="关于注册" sheetId="2" r:id="rId2"/>
-    <sheet name="并发计算" sheetId="3" r:id="rId3"/>
-    <sheet name="更新LOD" sheetId="6" r:id="rId4"/>
-    <sheet name="URO" sheetId="5" r:id="rId5"/>
-    <sheet name="隐患" sheetId="7" r:id="rId6"/>
+    <sheet name="概要" sheetId="8" r:id="rId1"/>
+    <sheet name="简介" sheetId="1" r:id="rId2"/>
+    <sheet name="关于注册" sheetId="2" r:id="rId3"/>
+    <sheet name="并发计算" sheetId="3" r:id="rId4"/>
+    <sheet name="更新LOD" sheetId="6" r:id="rId5"/>
+    <sheet name="URO" sheetId="5" r:id="rId6"/>
+    <sheet name="隐患" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +285,70 @@
   </si>
   <si>
     <t>const bool bDoParallelEvaluation = bHasValidInstanceForParallelWork &amp;&amp; bDoPAE &amp;&amp; (bShouldDoEvaluation || bShouldDoParallelInterpolation) &amp;&amp; TickFunction &amp;&amp; (TickFunction-&gt;GetActualTickGroup() == TickFunction-&gt;TickGroup) &amp;&amp; TickFunction-&gt;IsCompletionHandleValid();</t>
+  </si>
+  <si>
+    <t>动画，主要是Pawn或者Char资源（蓝图），包含了USkeletalMeshComponent组件，该组件内部设置USkeletalMesh，内部包含了对应的骨骼Uskeletal资源，物理资源；还有动画实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于USkeletalMeshComponent的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行更新，通过配置VisibilityBasedAnimTickOption来设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Skinned Mesh Animation Tick option based on rendered or not. This dictates "TickPose and RefreshBoneTransforms" */</t>
+  </si>
+  <si>
+    <t>UENUM(BlueprintType)</t>
+  </si>
+  <si>
+    <t>enum class EVisibilityBasedAnimTickOption : uint8</t>
+  </si>
+  <si>
+    <t>/** Always Tick and Refresh BoneTransforms whether rendered or not. */</t>
+  </si>
+  <si>
+    <t>AlwaysTickPoseAndRefreshBones,</t>
+  </si>
+  <si>
+    <t>/** Always Tick, but Refresh BoneTransforms only when rendered. */</t>
+  </si>
+  <si>
+    <t>AlwaysTickPose,</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>When rendered Tick Pose and Refresh Bone Transforms,</t>
+  </si>
+  <si>
+    <t>otherwise, just update montages and skip everything else.</t>
+  </si>
+  <si>
+    <t>(AnimBP graph will not be updated).</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>OnlyTickMontagesWhenNotRendered,</t>
+  </si>
+  <si>
+    <t>/** Tick only when rendered, and it will only RefreshBoneTransforms when rendered. */</t>
+  </si>
+  <si>
+    <t>OnlyTickPoseWhenRendered,</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>具体的更新动画，URO之类的优化方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,372 +701,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:P74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF8BF4-77D6-4D11-B362-6D1D995F8773}">
+  <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E59" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
-        <v>38</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
-        <v>43</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E73" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
-        <v>48</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,6 +836,381 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:P74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3882F053-67DE-4E86-B9B9-2F9890AFF918}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1023,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600F5C3-F3E4-4FE5-8AC1-A496C69E319E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1038,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66B5498-914C-4041-91ED-A6C8A0F4E642}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1053,12 +1253,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C796BC-2900-4975-A596-E02DDE4B8357}">
   <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,11 +1373,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243D5D1-A129-4ECA-864E-919ED04AA4E3}">
   <dimension ref="B3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BD5BB-4773-47B3-8E81-1DF57654B245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC54EB-3A6F-480A-BCE9-BAAAF1976872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="更新LOD" sheetId="6" r:id="rId5"/>
     <sheet name="URO" sheetId="5" r:id="rId6"/>
     <sheet name="隐患" sheetId="7" r:id="rId7"/>
+    <sheet name="渲染同步" sheetId="9" r:id="rId8"/>
+    <sheet name="双BUFFER切换" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +350,28 @@
   </si>
   <si>
     <t>具体的更新动画，URO之类的优化方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkinnedMeshComponent::SendRenderDynamicData_Concurrent()</t>
+  </si>
+  <si>
+    <t>内部会获取组件上的实际数据给RenderThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InMeshComponent-&gt;GetComponentSpaceTransforms();</t>
+  </si>
+  <si>
+    <t>主要就是计算的BoneTransform，每次计算完需要拷贝到实际的里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际用的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF8BF4-77D6-4D11-B362-6D1D995F8773}">
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -1408,4 +1432,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22752205-02DE-4C8E-A484-24958304191E}">
+  <dimension ref="B4:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B858AFA-468F-458E-B564-10B66B73F270}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC54EB-3A6F-480A-BCE9-BAAAF1976872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDF5BC-9D4E-428A-B404-44366B134D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="隐患" sheetId="7" r:id="rId7"/>
     <sheet name="渲染同步" sheetId="9" r:id="rId8"/>
     <sheet name="双BUFFER切换" sheetId="10" r:id="rId9"/>
+    <sheet name="SendRenderDynamicData_Concurren" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +373,42 @@
   </si>
   <si>
     <t>实际用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新骨骼动画的信息，如果这个函数不执行，骨骼动画就不会更新，动作就不会变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// if we have not updated the transforms then no need to send them to the rendering thread</t>
+  </si>
+  <si>
+    <t>// @todo GIsEditor used to be bUpdateSkelWhenNotRendered. Look into it further to find out why it doesn't update animations in the AnimSetViewer, when a level is loaded in UED (like POC_Cover.gear).</t>
+  </si>
+  <si>
+    <t>！！！注意这个里面的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( MeshObject &amp;&amp; SkeletalMesh &amp;&amp; (bForceMeshObjectUpdate || (bRecentlyRendered || VisibilityBasedAnimTickOption == EVisibilityBasedAnimTickOption::AlwaysTickPoseAndRefreshBones || GIsEditor || MeshObject-&gt;bHasBeenUpdatedAtLeastOnce == false)) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bRecentlyRendered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisibilityBasedAnimTickOption == EVisibilityBasedAnimTickOption::AlwaysTickPoseAndRefreshBones</t>
+  </si>
+  <si>
+    <t>GIsEditor</t>
+  </si>
+  <si>
+    <t>！！！这就是解释了为啥在编辑器下不管其他参数都会更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！为这个查了两天没</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,6 +896,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455ABAA3-4AEE-4316-99ED-6A4A5EC94CCF}">
+  <dimension ref="B4:U15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:P74"/>
@@ -1470,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B858AFA-468F-458E-B564-10B66B73F270}">
   <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDF5BC-9D4E-428A-B404-44366B134D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1E311-A412-4C16-A33B-292BA64F74E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="渲染同步" sheetId="9" r:id="rId8"/>
     <sheet name="双BUFFER切换" sheetId="10" r:id="rId9"/>
     <sheet name="SendRenderDynamicData_Concurren" sheetId="11" r:id="rId10"/>
+    <sheet name="CPU Access" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +410,43 @@
   </si>
   <si>
     <t>！！！为这个查了两天没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FSkeletalMeshLODRenderData::ShouldForceKeepCPUResources()</t>
+  </si>
+  <si>
+    <t>#if !WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>static const auto CVar = IConsoleManager::Get().FindTConsoleVariableDataInt(TEXT("r.FreeSkeletalMeshBuffers"));</t>
+  </si>
+  <si>
+    <t>if (CVar)</t>
+  </si>
+  <si>
+    <t>return !CVar-&gt;GetValueOnAnyThread();</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>bool FSkeletalMeshLODRenderData::ShouldKeepCPUResources(const USkinnedAsset* SkinnedAsset, int32 LODIdx, bool bForceKeep)</t>
+  </si>
+  <si>
+    <t>return bForceKeep</t>
+  </si>
+  <si>
+    <t>|| SkinnedAsset-&gt;GetResourceForRendering()-&gt;RequiresCPUSkinning(GMaxRHIFeatureLevel)</t>
+  </si>
+  <si>
+    <t>|| SkinnedAsset-&gt;NeedCPUData(LODIdx);</t>
+  </si>
+  <si>
+    <t>这两个都会导致数据传递到RenderThread后被删除，这样子想要Merge就会挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455ABAA3-4AEE-4316-99ED-6A4A5EC94CCF}">
   <dimension ref="B4:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -974,6 +1012,113 @@
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA8A9F-1CF4-438A-885D-EEDC35DB1B2F}">
+  <dimension ref="B3:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_skeletalmeshcomponent.xlsx
+++ b/doc/ue_skeletalmeshcomponent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1E311-A412-4C16-A33B-292BA64F74E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EF8B7-620E-4783-AAE4-67EF7DDDDC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>动画处理的核心类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>这两个都会导致数据传递到RenderThread后被删除，这样子想要Merge就会挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!只有CloseVectexBuffer会用到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,70 +1027,73 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA8A9F-1CF4-438A-885D-EEDC35DB1B2F}">
-  <dimension ref="B3:D27"/>
+  <dimension ref="B3:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
